--- a/Data/Reports/LEROY MERLIN CIA BRASILEIRA BRICOLAGEM.xlsx
+++ b/Data/Reports/LEROY MERLIN CIA BRASILEIRA BRICOLAGEM.xlsx
@@ -9808,7 +9808,52 @@
       <c r="BT83" s="2" t="n"/>
     </row>
     <row r="84" ht="15.75" customHeight="1" s="18">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>00016</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>000001204152011</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>DENISE ELISANDRA CARVALHO LOPES</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>848,11</t>
+        </is>
+      </c>
       <c r="X84" s="47" t="n"/>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>00001620213</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>04/09/2012</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ84" s="23" t="n"/>
       <c r="BB84" s="23" t="n"/>
       <c r="BC84" s="2" t="n"/>
@@ -9831,7 +9876,52 @@
       <c r="BT84" s="2" t="n"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="18">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>00042</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>164320050420200</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>MINST PUBLICO DO TRAB</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>17.180,95</t>
+        </is>
+      </c>
       <c r="X85" s="47" t="n"/>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>00000926270</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>24/11/2008</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ85" s="23" t="n"/>
       <c r="BB85" s="23" t="n"/>
       <c r="BC85" s="2" t="n"/>
@@ -9854,7 +9944,52 @@
       <c r="BT85" s="2" t="n"/>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="18">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>000000000194902</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ADRIANA APARECIDA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>7.439,81</t>
+        </is>
+      </c>
       <c r="X86" s="47" t="n"/>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>00000538424</t>
+        </is>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>04/09/2005</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ86" s="23" t="n"/>
       <c r="BB86" s="23" t="n"/>
       <c r="BC86" s="2" t="n"/>
@@ -9877,7 +10012,52 @@
       <c r="BT86" s="2" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="18">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>000000003212001</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ANA RITA ARAUJO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>3.824,26</t>
+        </is>
+      </c>
       <c r="X87" s="47" t="n"/>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>00000184517</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>02/09/1999</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>12171157463</t>
+        </is>
+      </c>
       <c r="AZ87" s="23" t="n"/>
       <c r="BB87" s="23" t="n"/>
       <c r="BC87" s="2" t="n"/>
@@ -9900,7 +10080,52 @@
       <c r="BT87" s="2" t="n"/>
     </row>
     <row r="88" ht="15.75" customHeight="1" s="18">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>000000005442009</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>MARCELO GONTHEIRO LICHT</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>8.507,38</t>
+        </is>
+      </c>
       <c r="X88" s="47" t="n"/>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>00001152600</t>
+        </is>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>07/07/2010</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ88" s="23" t="n"/>
       <c r="BB88" s="23" t="n"/>
       <c r="BC88" s="2" t="n"/>
@@ -9923,7 +10148,52 @@
       <c r="BT88" s="2" t="n"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="18">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>000000005442009</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MARCELO GONTHEIRO LICHT</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>17.257,13</t>
+        </is>
+      </c>
       <c r="X89" s="47" t="n"/>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>00001276091</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>13/04/2011</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ89" s="23" t="n"/>
       <c r="BB89" s="23" t="n"/>
       <c r="BC89" s="2" t="n"/>
@@ -9946,7 +10216,52 @@
       <c r="BT89" s="2" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="18">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>000054400362009</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>MARCELO GONTHEIRO LICHT</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>9.038,82</t>
+        </is>
+      </c>
       <c r="X90" s="47" t="n"/>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>00001383769</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>14/09/2011</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ90" s="23" t="n"/>
       <c r="BB90" s="23" t="n"/>
       <c r="BC90" s="2" t="n"/>
@@ -9969,7 +10284,52 @@
       <c r="BT90" s="2" t="n"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="18">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>000000005452009</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>MARCIO TADEU MIETI SILVA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>8.507,38</t>
+        </is>
+      </c>
       <c r="X91" s="47" t="n"/>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>00001152520</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>07/07/2010</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ91" s="23" t="n"/>
       <c r="BB91" s="23" t="n"/>
       <c r="BC91" s="2" t="n"/>
@@ -9992,7 +10352,52 @@
       <c r="BT91" s="2" t="n"/>
     </row>
     <row r="92" ht="15.75" customHeight="1" s="18">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>000000005452009</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>MARCIO TADEU MIETI SILVA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>17.257,13</t>
+        </is>
+      </c>
       <c r="X92" s="47" t="n"/>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>00001289231</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>06/05/2011</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ92" s="23" t="n"/>
       <c r="BB92" s="23" t="n"/>
       <c r="BC92" s="2" t="n"/>
@@ -10015,7 +10420,52 @@
       <c r="BT92" s="2" t="n"/>
     </row>
     <row r="93" ht="15.75" customHeight="1" s="18">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>000000015042009</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>MARIA ESTELA SANTOS</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>8.710,39</t>
+        </is>
+      </c>
       <c r="X93" s="47" t="n"/>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>00001235573</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>19/01/2011</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ93" s="23" t="n"/>
       <c r="BB93" s="23" t="n"/>
       <c r="BC93" s="2" t="n"/>
@@ -10038,7 +10488,52 @@
       <c r="BT93" s="2" t="n"/>
     </row>
     <row r="94" ht="15.75" customHeight="1" s="18">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>02007</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>000000000002601</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ROGERIO DUTRA PATRICIO</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>8.741,80</t>
+        </is>
+      </c>
       <c r="X94" s="47" t="n"/>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>00000875692</t>
+        </is>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>06/08/2008</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>12539633791</t>
+        </is>
+      </c>
       <c r="AZ94" s="23" t="n"/>
       <c r="BB94" s="23" t="n"/>
       <c r="BC94" s="2" t="n"/>
@@ -10061,7 +10556,52 @@
       <c r="BT94" s="2" t="n"/>
     </row>
     <row r="95" ht="15.75" customHeight="1" s="18">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>000000235052012</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>CAROLINA SILVA BUZOLLO</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>9.309,41</t>
+        </is>
+      </c>
       <c r="X95" s="47" t="n"/>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>00001985904</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>17/04/2014</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ95" s="23" t="n"/>
       <c r="BB95" s="23" t="n"/>
       <c r="BC95" s="2" t="n"/>
@@ -10084,7 +10624,52 @@
       <c r="BT95" s="2" t="n"/>
     </row>
     <row r="96" ht="15.75" customHeight="1" s="18">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>000000003022007</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ELISANGELA DA COSTA LIMA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>5.254,72</t>
+        </is>
+      </c>
       <c r="X96" s="47" t="n"/>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>00000989191</t>
+        </is>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>03/04/2009</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>12425383400</t>
+        </is>
+      </c>
       <c r="AZ96" s="23" t="n"/>
       <c r="BB96" s="23" t="n"/>
       <c r="BC96" s="2" t="n"/>
@@ -10107,7 +10692,52 @@
       <c r="BT96" s="2" t="n"/>
     </row>
     <row r="97" ht="15.75" customHeight="1" s="18">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>000000004852003</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>GILBERTO FERREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>8.570,13</t>
+        </is>
+      </c>
       <c r="X97" s="47" t="n"/>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>00000368243</t>
+        </is>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>08/01/2000</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>12058823208</t>
+        </is>
+      </c>
       <c r="AZ97" s="23" t="n"/>
       <c r="BB97" s="23" t="n"/>
       <c r="BC97" s="2" t="n"/>
@@ -10130,7 +10760,52 @@
       <c r="BT97" s="2" t="n"/>
     </row>
     <row r="98" ht="15.75" customHeight="1" s="18">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>00005</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>000000006502003</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>JOSE ROBERTO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>6.072,81</t>
+        </is>
+      </c>
       <c r="X98" s="47" t="n"/>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t>00000388864</t>
+        </is>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>14/09/2001</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>12491073066</t>
+        </is>
+      </c>
       <c r="AZ98" s="23" t="n"/>
       <c r="BB98" s="23" t="n"/>
       <c r="BC98" s="2" t="n"/>
@@ -10153,7 +10828,52 @@
       <c r="BT98" s="2" t="n"/>
     </row>
     <row r="99" ht="15.75" customHeight="1" s="18">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>00003</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>000000001682004</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>JOSIAS MARTINS</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>8.509,11</t>
+        </is>
+      </c>
       <c r="X99" s="47" t="n"/>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t>00000457858</t>
+        </is>
+      </c>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>09/02/2000</t>
+        </is>
+      </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>12776030853</t>
+        </is>
+      </c>
       <c r="AZ99" s="23" t="n"/>
       <c r="BB99" s="23" t="n"/>
       <c r="BC99" s="2" t="n"/>
@@ -10176,7 +10896,52 @@
       <c r="BT99" s="2" t="n"/>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="18">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>00065</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>000000016002008</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>MARIANA BEZERRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>8.706,47</t>
+        </is>
+      </c>
       <c r="X100" s="47" t="n"/>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t>00000887780</t>
+        </is>
+      </c>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>04/09/2008</t>
+        </is>
+      </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ100" s="23" t="n"/>
       <c r="BB100" s="23" t="n"/>
       <c r="BC100" s="2" t="n"/>
@@ -10199,7 +10964,52 @@
       <c r="BT100" s="2" t="n"/>
     </row>
     <row r="101" ht="15.75" customHeight="1" s="18">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>00005</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>000000000272004</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>RICARDO DE CARVALHO SOARES</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>5.669,80</t>
+        </is>
+      </c>
       <c r="X101" s="47" t="n"/>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t>00000513600</t>
+        </is>
+      </c>
+      <c r="AH101" t="inlineStr">
+        <is>
+          <t>19/12/2001</t>
+        </is>
+      </c>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ101" s="23" t="n"/>
       <c r="BB101" s="23" t="n"/>
       <c r="BC101" s="2" t="n"/>
@@ -10222,7 +11032,52 @@
       <c r="BT101" s="2" t="n"/>
     </row>
     <row r="102" ht="15.75" customHeight="1" s="18">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>000000000059501</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ADRIANO DE FREITAS SILVA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1.084,77</t>
+        </is>
+      </c>
       <c r="X102" s="47" t="n"/>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG102" t="inlineStr">
+        <is>
+          <t>00000131740</t>
+        </is>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>06/06/2000</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>12746635099</t>
+        </is>
+      </c>
       <c r="AZ102" s="23" t="n"/>
       <c r="BB102" s="23" t="n"/>
       <c r="BC102" s="2" t="n"/>
@@ -10245,7 +11100,52 @@
       <c r="BT102" s="2" t="n"/>
     </row>
     <row r="103" ht="15.75" customHeight="1" s="18">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>000000001692001</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ALBERTO LUIZ NOGUEIRA GARCIA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>162,74</t>
+        </is>
+      </c>
       <c r="X103" s="47" t="n"/>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t>00000178037</t>
+        </is>
+      </c>
+      <c r="AH103" t="inlineStr">
+        <is>
+          <t>06/06/2000</t>
+        </is>
+      </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>12721221096</t>
+        </is>
+      </c>
       <c r="AZ103" s="23" t="n"/>
       <c r="BB103" s="23" t="n"/>
       <c r="BC103" s="2" t="n"/>
@@ -10268,7 +11168,52 @@
       <c r="BT103" s="2" t="n"/>
     </row>
     <row r="104" ht="15.75" customHeight="1" s="18">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>000000004872002</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ALEXSANDRO COELHO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>3.363,09</t>
+        </is>
+      </c>
       <c r="X104" s="47" t="n"/>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>00000265193</t>
+        </is>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>01/06/1998</t>
+        </is>
+      </c>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>12547243301</t>
+        </is>
+      </c>
       <c r="AZ104" s="23" t="n"/>
       <c r="BB104" s="23" t="n"/>
       <c r="BC104" s="2" t="n"/>
@@ -10291,7 +11236,52 @@
       <c r="BT104" s="2" t="n"/>
     </row>
     <row r="105" ht="15.75" customHeight="1" s="18">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>00003</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>000000013602009</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>FERNANDO RODRIGUES SANTOS</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>14.140,92</t>
+        </is>
+      </c>
       <c r="X105" s="47" t="n"/>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG105" t="inlineStr">
+        <is>
+          <t>00001165770</t>
+        </is>
+      </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>06/08/2010</t>
+        </is>
+      </c>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ105" s="23" t="n"/>
       <c r="BB105" s="23" t="n"/>
       <c r="BC105" s="2" t="n"/>
@@ -10314,7 +11304,52 @@
       <c r="BT105" s="2" t="n"/>
     </row>
     <row r="106" ht="15.75" customHeight="1" s="18">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>000000001202004</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MARCELO FERNANDES BARROS</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>5.924,81</t>
+        </is>
+      </c>
       <c r="X106" s="47" t="n"/>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG106" t="inlineStr">
+        <is>
+          <t>00000428246</t>
+        </is>
+      </c>
+      <c r="AH106" t="inlineStr">
+        <is>
+          <t>11/07/2004</t>
+        </is>
+      </c>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ106" s="23" t="n"/>
       <c r="BB106" s="23" t="n"/>
       <c r="BC106" s="2" t="n"/>
@@ -10337,7 +11372,52 @@
       <c r="BT106" s="2" t="n"/>
     </row>
     <row r="107" ht="15.75" customHeight="1" s="18">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>00003</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>000000007642004</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>RENAN LENDER ALVARENGA</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>24,90</t>
+        </is>
+      </c>
       <c r="X107" s="47" t="n"/>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>00000483425</t>
+        </is>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>12622844095</t>
+        </is>
+      </c>
       <c r="AZ107" s="23" t="n"/>
       <c r="BB107" s="23" t="n"/>
       <c r="BC107" s="2" t="n"/>
@@ -10360,7 +11440,52 @@
       <c r="BT107" s="2" t="n"/>
     </row>
     <row r="108" ht="15.75" customHeight="1" s="18">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>00066</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>000001560622012</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>GLAUCIA PAULA SOUZA</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>9.717,87</t>
+        </is>
+      </c>
       <c r="X108" s="47" t="n"/>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG108" t="inlineStr">
+        <is>
+          <t>00002100426</t>
+        </is>
+      </c>
+      <c r="AH108" t="inlineStr">
+        <is>
+          <t>11/09/2014</t>
+        </is>
+      </c>
+      <c r="AJ108" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ108" s="23" t="n"/>
       <c r="BB108" s="23" t="n"/>
       <c r="BC108" s="2" t="n"/>
@@ -10383,7 +11508,52 @@
       <c r="BT108" s="2" t="n"/>
     </row>
     <row r="109" ht="15.75" customHeight="1" s="18">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>178620030010100</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>RENATO AFONSO LIMA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>4.047,54</t>
+        </is>
+      </c>
       <c r="X109" s="47" t="n"/>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t>00000777410</t>
+        </is>
+      </c>
+      <c r="AH109" t="inlineStr">
+        <is>
+          <t>01/08/2007</t>
+        </is>
+      </c>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ109" s="23" t="n"/>
       <c r="BB109" s="23" t="n"/>
       <c r="BC109" s="2" t="n"/>
@@ -10406,7 +11576,52 @@
       <c r="BT109" s="2" t="n"/>
     </row>
     <row r="110" ht="15.75" customHeight="1" s="18">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>00045</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>000000996272013</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>VALDEMIR SEVERINO ALVES</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>9.336,67</t>
+        </is>
+      </c>
       <c r="X110" s="47" t="n"/>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>00001985653</t>
+        </is>
+      </c>
+      <c r="AH110" t="inlineStr">
+        <is>
+          <t>07/04/2014</t>
+        </is>
+      </c>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ110" s="23" t="n"/>
       <c r="BB110" s="23" t="n"/>
       <c r="BC110" s="2" t="n"/>
@@ -10429,7 +11644,52 @@
       <c r="BT110" s="2" t="n"/>
     </row>
     <row r="111" ht="15.75" customHeight="1" s="18">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>00018</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>000000351782007</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NOIMI KONONCZUK</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>410,61</t>
+        </is>
+      </c>
       <c r="X111" s="47" t="n"/>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>00001032460</t>
+        </is>
+      </c>
+      <c r="AH111" t="inlineStr">
+        <is>
+          <t>31/08/2009</t>
+        </is>
+      </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>12545574734</t>
+        </is>
+      </c>
       <c r="AZ111" s="23" t="n"/>
       <c r="BB111" s="23" t="n"/>
       <c r="BC111" s="2" t="n"/>
@@ -10452,7 +11712,52 @@
       <c r="BT111" s="2" t="n"/>
     </row>
     <row r="112" ht="15.75" customHeight="1" s="18">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>000001649702010</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>MICHELLE CARVALHO ARCIPRETI VIRGILIO</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>17.596,95</t>
+        </is>
+      </c>
       <c r="X112" s="47" t="n"/>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>00001547621</t>
+        </is>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
+          <t>05/07/2012</t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ112" s="23" t="n"/>
       <c r="BB112" s="23" t="n"/>
       <c r="BC112" s="2" t="n"/>
@@ -10475,7 +11780,52 @@
       <c r="BT112" s="2" t="n"/>
     </row>
     <row r="113" ht="15.75" customHeight="1" s="18">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>00038</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>000000013732007</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>CASSIO TIAGO BARRONCAS</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>8.740,68</t>
+        </is>
+      </c>
       <c r="X113" s="47" t="n"/>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>00001032206</t>
+        </is>
+      </c>
+      <c r="AH113" t="inlineStr">
+        <is>
+          <t>11/08/2009</t>
+        </is>
+      </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ113" s="23" t="n"/>
       <c r="BB113" s="23" t="n"/>
       <c r="BC113" s="2" t="n"/>
@@ -10498,7 +11848,52 @@
       <c r="BT113" s="2" t="n"/>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="18">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>000000011122008</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>PRISCILLA ALVARENGA SILVA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>91,21</t>
+        </is>
+      </c>
       <c r="X114" s="47" t="n"/>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>00001074626</t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>21/12/2009</t>
+        </is>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ114" s="23" t="n"/>
       <c r="BB114" s="23" t="n"/>
       <c r="BC114" s="2" t="n"/>
@@ -10521,7 +11916,52 @@
       <c r="BT114" s="2" t="n"/>
     </row>
     <row r="115" ht="15.75" customHeight="1" s="18">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>00073</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>000000010392005</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1.266,81</t>
+        </is>
+      </c>
       <c r="X115" s="47" t="n"/>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>00000980640</t>
+        </is>
+      </c>
+      <c r="AH115" t="inlineStr">
+        <is>
+          <t>10/03/2009</t>
+        </is>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>12332511875</t>
+        </is>
+      </c>
       <c r="AZ115" s="23" t="n"/>
       <c r="BB115" s="23" t="n"/>
       <c r="BC115" s="2" t="n"/>
@@ -10544,7 +11984,52 @@
       <c r="BT115" s="2" t="n"/>
     </row>
     <row r="116" ht="15.75" customHeight="1" s="18">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>000000007532006</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>WILLIAN RIOS MORAES</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1.235,87</t>
+        </is>
+      </c>
       <c r="X116" s="47" t="n"/>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>00000630827</t>
+        </is>
+      </c>
+      <c r="AH116" t="inlineStr">
+        <is>
+          <t>01/09/2005</t>
+        </is>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>13113627272</t>
+        </is>
+      </c>
       <c r="AZ116" s="23" t="n"/>
       <c r="BB116" s="23" t="n"/>
       <c r="BC116" s="2" t="n"/>
@@ -10567,7 +12052,52 @@
       <c r="BT116" s="2" t="n"/>
     </row>
     <row r="117" ht="15.75" customHeight="1" s="18">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>000001649702010</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>MICHELLE CARVALHO ARCIPRETTI VIRGILIO</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>9.113,91</t>
+        </is>
+      </c>
       <c r="X117" s="47" t="n"/>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>00001688870</t>
+        </is>
+      </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t>05/12/2012</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ117" s="23" t="n"/>
       <c r="BB117" s="23" t="n"/>
       <c r="BC117" s="2" t="n"/>
@@ -10590,7 +12120,52 @@
       <c r="BT117" s="2" t="n"/>
     </row>
     <row r="118" ht="15.75" customHeight="1" s="18">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>000000591672013</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>DENISE ELOY SILVA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>11.533,58</t>
+        </is>
+      </c>
       <c r="X118" s="47" t="n"/>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>09970502623745</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>00002160402</t>
+        </is>
+      </c>
+      <c r="AH118" t="inlineStr">
+        <is>
+          <t>28/11/2014</t>
+        </is>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ118" s="23" t="n"/>
       <c r="BB118" s="23" t="n"/>
       <c r="BC118" s="2" t="n"/>
@@ -10613,7 +12188,52 @@
       <c r="BT118" s="2" t="n"/>
     </row>
     <row r="119" ht="15.75" customHeight="1" s="18">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>00291</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>100147048201552</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BARBOSA SOUZA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>10.250,41</t>
+        </is>
+      </c>
       <c r="X119" s="47" t="n"/>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t>00000025355</t>
+        </is>
+      </c>
+      <c r="AH119" t="inlineStr">
+        <is>
+          <t>28/06/2017</t>
+        </is>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ119" s="23" t="n"/>
       <c r="BB119" s="23" t="n"/>
       <c r="BC119" s="2" t="n"/>
@@ -10636,7 +12256,52 @@
       <c r="BT119" s="2" t="n"/>
     </row>
     <row r="120" ht="15.75" customHeight="1" s="18">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>00291</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>100147048201552</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BARBOSA SOUZA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>260,54</t>
+        </is>
+      </c>
       <c r="X120" s="47" t="n"/>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>00000028966</t>
+        </is>
+      </c>
+      <c r="AH120" t="inlineStr">
+        <is>
+          <t>11/09/2017</t>
+        </is>
+      </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ120" s="23" t="n"/>
       <c r="BB120" s="23" t="n"/>
       <c r="BC120" s="2" t="n"/>
@@ -10659,7 +12324,52 @@
       <c r="BT120" s="2" t="n"/>
     </row>
     <row r="121" ht="15.75" customHeight="1" s="18">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>00468</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>100214647201552</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ANA PAULA LIMA</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>10.272,21</t>
+        </is>
+      </c>
       <c r="X121" s="47" t="n"/>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t>00000017840</t>
+        </is>
+      </c>
+      <c r="AH121" t="inlineStr">
+        <is>
+          <t>30/12/2016</t>
+        </is>
+      </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ121" s="23" t="n"/>
       <c r="BB121" s="23" t="n"/>
       <c r="BC121" s="2" t="n"/>
@@ -10682,7 +12392,52 @@
       <c r="BT121" s="2" t="n"/>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="18">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>00063</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>010147678201651</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ANDREA LOURENCO BASTOS</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>872,93</t>
+        </is>
+      </c>
       <c r="X122" s="47" t="n"/>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t>00000023492</t>
+        </is>
+      </c>
+      <c r="AH122" t="inlineStr">
+        <is>
+          <t>31/05/2017</t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ122" s="23" t="n"/>
       <c r="BB122" s="23" t="n"/>
       <c r="BC122" s="2" t="n"/>
@@ -10705,7 +12460,52 @@
       <c r="BT122" s="2" t="n"/>
     </row>
     <row r="123" ht="15.75" customHeight="1" s="18">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20105</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>000093098201652</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>ANTONIO PEREIRA ARAUJO</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>10.250,41</t>
+        </is>
+      </c>
       <c r="X123" s="47" t="n"/>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t>00000024707</t>
+        </is>
+      </c>
+      <c r="AH123" t="inlineStr">
+        <is>
+          <t>23/06/2017</t>
+        </is>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ123" s="23" t="n"/>
       <c r="BB123" s="23" t="n"/>
       <c r="BC123" s="2" t="n"/>
@@ -10728,7 +12528,52 @@
       <c r="BT123" s="2" t="n"/>
     </row>
     <row r="124" ht="15.75" customHeight="1" s="18">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>00331</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>002141558201554</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>CHRISTIAN LEDUR</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>261,33</t>
+        </is>
+      </c>
       <c r="X124" s="47" t="n"/>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t>00000027480</t>
+        </is>
+      </c>
+      <c r="AH124" t="inlineStr">
+        <is>
+          <t>07/08/2017</t>
+        </is>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ124" s="23" t="n"/>
       <c r="BB124" s="23" t="n"/>
       <c r="BC124" s="2" t="n"/>
@@ -10751,7 +12596,52 @@
       <c r="BT124" s="2" t="n"/>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="18">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>00471</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>100227373201552</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>DANIELE MARIA ALICE CARAPETTO</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>17.310,95</t>
+        </is>
+      </c>
       <c r="X125" s="47" t="n"/>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG125" t="inlineStr">
+        <is>
+          <t>00000021600</t>
+        </is>
+      </c>
+      <c r="AH125" t="inlineStr">
+        <is>
+          <t>04/04/2017</t>
+        </is>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ125" s="23" t="n"/>
       <c r="BB125" s="23" t="n"/>
       <c r="BC125" s="2" t="n"/>
@@ -10774,7 +12664,52 @@
       <c r="BT125" s="2" t="n"/>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="18">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>00085</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>100203429201652</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>DIANA ROSA SANTOS</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>10.250,41</t>
+        </is>
+      </c>
       <c r="X126" s="47" t="n"/>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG126" t="inlineStr">
+        <is>
+          <t>00000025274</t>
+        </is>
+      </c>
+      <c r="AH126" t="inlineStr">
+        <is>
+          <t>30/06/2017</t>
+        </is>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>13012572774</t>
+        </is>
+      </c>
       <c r="AZ126" s="23" t="n"/>
       <c r="BB126" s="23" t="n"/>
       <c r="BC126" s="2" t="n"/>
@@ -10797,7 +12732,52 @@
       <c r="BT126" s="2" t="n"/>
     </row>
     <row r="127" ht="15.75" customHeight="1" s="18">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>00708</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>100138368201652</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>DIEGO ALMEIDA BRAGA</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>10.498,41</t>
+        </is>
+      </c>
       <c r="X127" s="47" t="n"/>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>00000018146</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>07/12/2016</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>13482093937</t>
+        </is>
+      </c>
       <c r="AZ127" s="23" t="n"/>
       <c r="BB127" s="23" t="n"/>
       <c r="BC127" s="2" t="n"/>
@@ -10820,7 +12800,52 @@
       <c r="BT127" s="2" t="n"/>
     </row>
     <row r="128" ht="15.75" customHeight="1" s="18">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>010093886201651</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ELCIO ANTONIO LIMA KLEN</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>124,09</t>
+        </is>
+      </c>
       <c r="X128" s="47" t="n"/>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG128" t="inlineStr">
+        <is>
+          <t>00000029180</t>
+        </is>
+      </c>
+      <c r="AH128" t="inlineStr">
+        <is>
+          <t>27/09/2017</t>
+        </is>
+      </c>
+      <c r="AJ128" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ128" s="23" t="n"/>
       <c r="BB128" s="23" t="n"/>
       <c r="BC128" s="2" t="n"/>
@@ -10843,7 +12868,52 @@
       <c r="BT128" s="2" t="n"/>
     </row>
     <row r="129" ht="15.75" customHeight="1" s="18">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>00034</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>001106088201551</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>EVANDRO RODRIGUES COSTA</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>6.089,04</t>
+        </is>
+      </c>
       <c r="X129" s="47" t="n"/>
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG129" t="inlineStr">
+        <is>
+          <t>00000020124</t>
+        </is>
+      </c>
+      <c r="AH129" t="inlineStr">
+        <is>
+          <t>22/02/2017</t>
+        </is>
+      </c>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ129" s="23" t="n"/>
       <c r="BB129" s="23" t="n"/>
       <c r="BC129" s="2" t="n"/>
@@ -10866,7 +12936,52 @@
       <c r="BT129" s="2" t="n"/>
     </row>
     <row r="130" ht="15.75" customHeight="1" s="18">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>00029</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>001130038201553</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>FLAVIA REGINA SILVA</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>8.132,97</t>
+        </is>
+      </c>
       <c r="X130" s="47" t="n"/>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG130" t="inlineStr">
+        <is>
+          <t>00000019380</t>
+        </is>
+      </c>
+      <c r="AH130" t="inlineStr">
+        <is>
+          <t>06/02/2017</t>
+        </is>
+      </c>
+      <c r="AJ130" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ130" s="23" t="n"/>
       <c r="BB130" s="23" t="n"/>
       <c r="BC130" s="2" t="n"/>
@@ -10889,7 +13004,52 @@
       <c r="BT130" s="2" t="n"/>
     </row>
     <row r="131" ht="15.75" customHeight="1" s="18">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>00029</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>001130038201553</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>FLAVIA REGINA SILVA</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>8.032,46</t>
+        </is>
+      </c>
       <c r="X131" s="47" t="n"/>
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG131" t="inlineStr">
+        <is>
+          <t>00000023220</t>
+        </is>
+      </c>
+      <c r="AH131" t="inlineStr">
+        <is>
+          <t>17/05/2017</t>
+        </is>
+      </c>
+      <c r="AJ131" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ131" s="23" t="n"/>
       <c r="BB131" s="23" t="n"/>
       <c r="BC131" s="2" t="n"/>
@@ -10912,7 +13072,52 @@
       <c r="BT131" s="2" t="n"/>
     </row>
     <row r="132" ht="15.75" customHeight="1" s="18">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>00075</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>000223335201552</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>FRANCISCO ERISMAR ROSENO ANDRADE</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>5.809,17</t>
+        </is>
+      </c>
       <c r="X132" s="47" t="n"/>
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG132" t="inlineStr">
+        <is>
+          <t>00000018570</t>
+        </is>
+      </c>
+      <c r="AH132" t="inlineStr">
+        <is>
+          <t>20/01/2017</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ132" s="23" t="n"/>
       <c r="BB132" s="23" t="n"/>
       <c r="BC132" s="2" t="n"/>
@@ -10935,7 +13140,52 @@
       <c r="BT132" s="2" t="n"/>
     </row>
     <row r="133" ht="15.75" customHeight="1" s="18">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>00008</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>000005931201352</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>GRACIANE SOARES SILVA</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1.680,75</t>
+        </is>
+      </c>
       <c r="X133" s="47" t="n"/>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t>00000026246</t>
+        </is>
+      </c>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>27/07/2017</t>
+        </is>
+      </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>21013804890</t>
+        </is>
+      </c>
       <c r="AZ133" s="23" t="n"/>
       <c r="BB133" s="23" t="n"/>
       <c r="BC133" s="2" t="n"/>
@@ -10958,7 +13208,52 @@
       <c r="BT133" s="2" t="n"/>
     </row>
     <row r="134" ht="15.75" customHeight="1" s="18">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>00712</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>100035468201652</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ICARO JOSE PENA SERRA</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>10.398,03</t>
+        </is>
+      </c>
       <c r="X134" s="47" t="n"/>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG134" t="inlineStr">
+        <is>
+          <t>00000030197</t>
+        </is>
+      </c>
+      <c r="AH134" t="inlineStr">
+        <is>
+          <t>11/10/2017</t>
+        </is>
+      </c>
+      <c r="AJ134" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ134" s="23" t="n"/>
       <c r="BB134" s="23" t="n"/>
       <c r="BC134" s="2" t="n"/>
@@ -10981,7 +13276,52 @@
       <c r="BT134" s="2" t="n"/>
     </row>
     <row r="135" ht="15.75" customHeight="1" s="18">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>00108</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>001078557201553</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ISALTINA MOREIRA MORAIS</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>10.449,36</t>
+        </is>
+      </c>
       <c r="X135" s="47" t="n"/>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t>00000027994</t>
+        </is>
+      </c>
+      <c r="AH135" t="inlineStr">
+        <is>
+          <t>29/08/2017</t>
+        </is>
+      </c>
+      <c r="AJ135" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ135" s="23" t="n"/>
       <c r="BB135" s="23" t="n"/>
       <c r="BC135" s="2" t="n"/>
@@ -11004,7 +13344,52 @@
       <c r="BT135" s="2" t="n"/>
     </row>
     <row r="136" ht="15.75" customHeight="1" s="18">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>00334</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>002094263201554</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>JESSICA SANTOS WITZEL</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>9.486,96</t>
+        </is>
+      </c>
       <c r="X136" s="47" t="n"/>
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t>00000013772</t>
+        </is>
+      </c>
+      <c r="AH136" t="inlineStr">
+        <is>
+          <t>29/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ136" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ136" s="23" t="n"/>
       <c r="BB136" s="23" t="n"/>
       <c r="BC136" s="2" t="n"/>
@@ -11027,7 +13412,52 @@
       <c r="BT136" s="2" t="n"/>
     </row>
     <row r="137" ht="15.75" customHeight="1" s="18">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>80001</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>001154871201551</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>JOAO FERREIRA SILVA</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>10.314,46</t>
+        </is>
+      </c>
       <c r="X137" s="47" t="n"/>
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>00000022259</t>
+        </is>
+      </c>
+      <c r="AH137" t="inlineStr">
+        <is>
+          <t>27/04/2017</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ137" s="23" t="n"/>
       <c r="BB137" s="23" t="n"/>
       <c r="BC137" s="2" t="n"/>
@@ -11050,7 +13480,52 @@
       <c r="BT137" s="2" t="n"/>
     </row>
     <row r="138" ht="15.75" customHeight="1" s="18">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>00066</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>000205720201452</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>JOAO TADEU CASTRO</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>10.423,67</t>
+        </is>
+      </c>
       <c r="X138" s="47" t="n"/>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t>00000030006</t>
+        </is>
+      </c>
+      <c r="AH138" t="inlineStr">
+        <is>
+          <t>11/10/2017</t>
+        </is>
+      </c>
+      <c r="AJ138" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ138" s="23" t="n"/>
       <c r="BB138" s="23" t="n"/>
       <c r="BC138" s="2" t="n"/>
@@ -11073,7 +13548,52 @@
       <c r="BT138" s="2" t="n"/>
     </row>
     <row r="139" ht="15.75" customHeight="1" s="18">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>50045</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>001088826201551</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>JONATHAN JESUS SOUZA</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2.273,47</t>
+        </is>
+      </c>
       <c r="X139" s="47" t="n"/>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>00000012105</t>
+        </is>
+      </c>
+      <c r="AH139" t="inlineStr">
+        <is>
+          <t>05/07/2016</t>
+        </is>
+      </c>
+      <c r="AJ139" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ139" s="23" t="n"/>
       <c r="BB139" s="23" t="n"/>
       <c r="BC139" s="2" t="n"/>
@@ -11096,7 +13616,52 @@
       <c r="BT139" s="2" t="n"/>
     </row>
     <row r="140" ht="15.75" customHeight="1" s="18">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>00011</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>000021024201751</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>JOSE CARLOS ALVES OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>10.398,03</t>
+        </is>
+      </c>
       <c r="X140" s="47" t="n"/>
+      <c r="AF140" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t>00000030863</t>
+        </is>
+      </c>
+      <c r="AH140" t="inlineStr">
+        <is>
+          <t>08/11/2017</t>
+        </is>
+      </c>
+      <c r="AJ140" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ140" s="23" t="n"/>
       <c r="BB140" s="23" t="n"/>
       <c r="BC140" s="2" t="n"/>
@@ -11119,7 +13684,52 @@
       <c r="BT140" s="2" t="n"/>
     </row>
     <row r="141" ht="15.75" customHeight="1" s="18">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>00465</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>100192976201652</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>JOSE EDNALDO TEIXEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>10.449,36</t>
+        </is>
+      </c>
       <c r="X141" s="47" t="n"/>
+      <c r="AF141" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t>00000028028</t>
+        </is>
+      </c>
+      <c r="AH141" t="inlineStr">
+        <is>
+          <t>29/08/2017</t>
+        </is>
+      </c>
+      <c r="AJ141" t="inlineStr">
+        <is>
+          <t>17057221515</t>
+        </is>
+      </c>
       <c r="AZ141" s="23" t="n"/>
       <c r="BB141" s="23" t="n"/>
       <c r="BC141" s="2" t="n"/>
@@ -11142,7 +13752,52 @@
       <c r="BT141" s="2" t="n"/>
     </row>
     <row r="142" ht="15.75" customHeight="1" s="18">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>000152719201551</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>JOSE JAMENES SOUSA MACEDO</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>10.339,89</t>
+        </is>
+      </c>
       <c r="X142" s="47" t="n"/>
+      <c r="AF142" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG142" t="inlineStr">
+        <is>
+          <t>00000021015</t>
+        </is>
+      </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="AJ142" t="inlineStr">
+        <is>
+          <t>12316213040</t>
+        </is>
+      </c>
       <c r="AZ142" s="23" t="n"/>
       <c r="BB142" s="23" t="n"/>
       <c r="BC142" s="2" t="n"/>
@@ -11165,7 +13820,52 @@
       <c r="BT142" s="2" t="n"/>
     </row>
     <row r="143" ht="15.75" customHeight="1" s="18">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>000152719201551</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>JOSE JAMENES SOUSA MACEDO</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>10.339,89</t>
+        </is>
+      </c>
       <c r="X143" s="47" t="n"/>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>00000021953</t>
+        </is>
+      </c>
+      <c r="AH143" t="inlineStr">
+        <is>
+          <t>11/04/2017</t>
+        </is>
+      </c>
+      <c r="AJ143" t="inlineStr">
+        <is>
+          <t>12316213040</t>
+        </is>
+      </c>
       <c r="AZ143" s="23" t="n"/>
       <c r="BB143" s="23" t="n"/>
       <c r="BC143" s="2" t="n"/>
@@ -11188,7 +13888,52 @@
       <c r="BT143" s="2" t="n"/>
     </row>
     <row r="144" ht="15.75" customHeight="1" s="18">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>00720</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>100057879201652</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>JOSIANE CANDEIA RODRIGUES SANTANA</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>10.281,23</t>
+        </is>
+      </c>
       <c r="X144" s="47" t="n"/>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>00000022925</t>
+        </is>
+      </c>
+      <c r="AH144" t="inlineStr">
+        <is>
+          <t>10/05/2017</t>
+        </is>
+      </c>
+      <c r="AJ144" t="inlineStr">
+        <is>
+          <t>16306757822</t>
+        </is>
+      </c>
       <c r="AZ144" s="23" t="n"/>
       <c r="BB144" s="23" t="n"/>
       <c r="BC144" s="2" t="n"/>
@@ -11211,7 +13956,52 @@
       <c r="BT144" s="2" t="n"/>
     </row>
     <row r="145" ht="15.75" customHeight="1" s="18">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>00106</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>001023908201553</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LEONARDO MISAEL GUIMARAES SILVA</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>566,58</t>
+        </is>
+      </c>
       <c r="X145" s="47" t="n"/>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>00000009074</t>
+        </is>
+      </c>
+      <c r="AH145" t="inlineStr">
+        <is>
+          <t>11/02/2016</t>
+        </is>
+      </c>
+      <c r="AJ145" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ145" s="23" t="n"/>
       <c r="BB145" s="23" t="n"/>
       <c r="BC145" s="2" t="n"/>
@@ -11234,7 +14024,52 @@
       <c r="BT145" s="2" t="n"/>
     </row>
     <row r="146" ht="15.75" customHeight="1" s="18">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>000178380201452</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LINDOMAR TEIXEIRA COSTA</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>9.959,43</t>
+        </is>
+      </c>
       <c r="X146" s="47" t="n"/>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>00000009236</t>
+        </is>
+      </c>
+      <c r="AH146" t="inlineStr">
+        <is>
+          <t>19/02/2016</t>
+        </is>
+      </c>
+      <c r="AJ146" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ146" s="23" t="n"/>
       <c r="BB146" s="23" t="n"/>
       <c r="BC146" s="2" t="n"/>
@@ -11257,7 +14092,52 @@
       <c r="BT146" s="2" t="n"/>
     </row>
     <row r="147" ht="15.75" customHeight="1" s="18">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>000178380201452</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LINDOMAR TEIXEIRA COSTA</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>4.876,20</t>
+        </is>
+      </c>
       <c r="X147" s="47" t="n"/>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>00000012458</t>
+        </is>
+      </c>
+      <c r="AH147" t="inlineStr">
+        <is>
+          <t>13/07/2016</t>
+        </is>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>18087838411</t>
+        </is>
+      </c>
       <c r="AZ147" s="23" t="n"/>
       <c r="BB147" s="23" t="n"/>
       <c r="BC147" s="2" t="n"/>
@@ -11280,7 +14160,52 @@
       <c r="BT147" s="2" t="n"/>
     </row>
     <row r="148" ht="15.75" customHeight="1" s="18">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>000178380201452</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LINDOMAR TEIXEIRA COSTA</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>10.624,99</t>
+        </is>
+      </c>
       <c r="X148" s="47" t="n"/>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>00000013691</t>
+        </is>
+      </c>
+      <c r="AH148" t="inlineStr">
+        <is>
+          <t>30/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ148" t="inlineStr">
+        <is>
+          <t>18087838411</t>
+        </is>
+      </c>
       <c r="AZ148" s="23" t="n"/>
       <c r="BB148" s="23" t="n"/>
       <c r="BC148" s="2" t="n"/>
@@ -11303,7 +14228,52 @@
       <c r="BT148" s="2" t="n"/>
     </row>
     <row r="149" ht="15.75" customHeight="1" s="18">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>002108093201454</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>MARCO ANTONIO COELHO MATTANA</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>10.624,99</t>
+        </is>
+      </c>
       <c r="X149" s="47" t="n"/>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>00000014078</t>
+        </is>
+      </c>
+      <c r="AH149" t="inlineStr">
+        <is>
+          <t>12/09/2016</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ149" s="23" t="n"/>
       <c r="BB149" s="23" t="n"/>
       <c r="BC149" s="2" t="n"/>
@@ -11326,7 +14296,52 @@
       <c r="BT149" s="2" t="n"/>
     </row>
     <row r="150" ht="15.75" customHeight="1" s="18">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>000120618201359</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>MARTA OLIVEIRA FIGUEIREDO</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>9.564,31</t>
+        </is>
+      </c>
       <c r="X150" s="47" t="n"/>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>00000001685</t>
+        </is>
+      </c>
+      <c r="AH150" t="inlineStr">
+        <is>
+          <t>02/03/2015</t>
+        </is>
+      </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ150" s="23" t="n"/>
       <c r="BB150" s="23" t="n"/>
       <c r="BC150" s="2" t="n"/>
@@ -11349,7 +14364,52 @@
       <c r="BT150" s="2" t="n"/>
     </row>
     <row r="151" ht="15.75" customHeight="1" s="18">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>000120618201359</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>MARTA OLIVEIRA FIGUEIREDO</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>3.108,00</t>
+        </is>
+      </c>
       <c r="X151" s="47" t="n"/>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>00000006644</t>
+        </is>
+      </c>
+      <c r="AH151" t="inlineStr">
+        <is>
+          <t>04/11/2015</t>
+        </is>
+      </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ151" s="23" t="n"/>
       <c r="BB151" s="23" t="n"/>
       <c r="BC151" s="2" t="n"/>
@@ -11372,7 +14432,52 @@
       <c r="BT151" s="2" t="n"/>
     </row>
     <row r="152" ht="15.75" customHeight="1" s="18">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>00673</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>000086227201459</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>MIRIAM CRISTINA NANI BUXTON</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>9.420,15</t>
+        </is>
+      </c>
       <c r="X152" s="47" t="n"/>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t>00000003467</t>
+        </is>
+      </c>
+      <c r="AH152" t="inlineStr">
+        <is>
+          <t>19/06/2015</t>
+        </is>
+      </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ152" s="23" t="n"/>
       <c r="BB152" s="23" t="n"/>
       <c r="BC152" s="2" t="n"/>
@@ -11395,7 +14500,52 @@
       <c r="BT152" s="2" t="n"/>
     </row>
     <row r="153" ht="15.75" customHeight="1" s="18">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>00673</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>000086227201459</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>MIRIAM CRISTINA NANI BUXTON</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>865,32</t>
+        </is>
+      </c>
       <c r="X153" s="47" t="n"/>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>00000006210</t>
+        </is>
+      </c>
+      <c r="AH153" t="inlineStr">
+        <is>
+          <t>05/10/2015</t>
+        </is>
+      </c>
+      <c r="AJ153" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ153" s="23" t="n"/>
       <c r="BB153" s="23" t="n"/>
       <c r="BC153" s="2" t="n"/>
@@ -11418,7 +14568,52 @@
       <c r="BT153" s="2" t="n"/>
     </row>
     <row r="154" ht="15.75" customHeight="1" s="18">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>00673</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>000086227201459</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>MIRIAM CRISTINA NANI BUXTON</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>13.637,42</t>
+        </is>
+      </c>
       <c r="X154" s="47" t="n"/>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>00000021791</t>
+        </is>
+      </c>
+      <c r="AH154" t="inlineStr">
+        <is>
+          <t>03/04/2017</t>
+        </is>
+      </c>
+      <c r="AJ154" t="inlineStr">
+        <is>
+          <t>12507876206</t>
+        </is>
+      </c>
       <c r="AZ154" s="23" t="n"/>
       <c r="BB154" s="23" t="n"/>
       <c r="BC154" s="2" t="n"/>
@@ -11441,7 +14636,52 @@
       <c r="BT154" s="2" t="n"/>
     </row>
     <row r="155" ht="15.75" customHeight="1" s="18">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>00468</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>100222997201452</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NOBERTO SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>10.498,41</t>
+        </is>
+      </c>
       <c r="X155" s="47" t="n"/>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>00000017921</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>06/12/2016</t>
+        </is>
+      </c>
+      <c r="AJ155" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ155" s="23" t="n"/>
       <c r="BB155" s="23" t="n"/>
       <c r="BC155" s="2" t="n"/>
@@ -11464,7 +14704,52 @@
       <c r="BT155" s="2" t="n"/>
     </row>
     <row r="156" ht="15.75" customHeight="1" s="18">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>000027362201559</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>PATRICIA SOUSA BRITO</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>10.250,41</t>
+        </is>
+      </c>
       <c r="X156" s="47" t="n"/>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t>00000024464</t>
+        </is>
+      </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>12/06/2017</t>
+        </is>
+      </c>
+      <c r="AJ156" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ156" s="23" t="n"/>
       <c r="BB156" s="23" t="n"/>
       <c r="BC156" s="2" t="n"/>
@@ -11487,7 +14772,52 @@
       <c r="BT156" s="2" t="n"/>
     </row>
     <row r="157" ht="15.75" customHeight="1" s="18">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>00046</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>000199307201352</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>REGIS SILVA CERQUEIRA</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>10.281,23</t>
+        </is>
+      </c>
       <c r="X157" s="47" t="n"/>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t>00000023735</t>
+        </is>
+      </c>
+      <c r="AH157" t="inlineStr">
+        <is>
+          <t>18/05/2017</t>
+        </is>
+      </c>
+      <c r="AJ157" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ157" s="23" t="n"/>
       <c r="BB157" s="23" t="n"/>
       <c r="BC157" s="2" t="n"/>
@@ -11510,7 +14840,52 @@
       <c r="BT157" s="2" t="n"/>
     </row>
     <row r="158" ht="15.75" customHeight="1" s="18">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>50093</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>001194158201651</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>VALDINEI SOUZA SILVA</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>10.281,23</t>
+        </is>
+      </c>
       <c r="X158" s="47" t="n"/>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG158" t="inlineStr">
+        <is>
+          <t>00000024030</t>
+        </is>
+      </c>
+      <c r="AH158" t="inlineStr">
+        <is>
+          <t>30/05/2017</t>
+        </is>
+      </c>
+      <c r="AJ158" t="inlineStr">
+        <is>
+          <t>12541502151</t>
+        </is>
+      </c>
       <c r="AZ158" s="23" t="n"/>
       <c r="BB158" s="23" t="n"/>
       <c r="BC158" s="2" t="n"/>
@@ -11533,7 +14908,52 @@
       <c r="BT158" s="2" t="n"/>
     </row>
     <row r="159" ht="15.75" customHeight="1" s="18">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>50093</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>001194158201651</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>VALDINEI SOUZA SILVA</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>20.796,34</t>
+        </is>
+      </c>
       <c r="X159" s="47" t="n"/>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG159" t="inlineStr">
+        <is>
+          <t>00000030430</t>
+        </is>
+      </c>
+      <c r="AH159" t="inlineStr">
+        <is>
+          <t>23/10/2017</t>
+        </is>
+      </c>
+      <c r="AJ159" t="inlineStr">
+        <is>
+          <t>12541502151</t>
+        </is>
+      </c>
       <c r="AZ159" s="23" t="n"/>
       <c r="BB159" s="23" t="n"/>
       <c r="BC159" s="2" t="n"/>
@@ -11556,7 +14976,52 @@
       <c r="BT159" s="2" t="n"/>
     </row>
     <row r="160" ht="15.75" customHeight="1" s="18">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>000020094201352</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>ANTONIO VILELA MELO</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>19.827,28</t>
+        </is>
+      </c>
       <c r="X160" s="47" t="n"/>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>00000010323</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>08/04/2016</t>
+        </is>
+      </c>
+      <c r="AJ160" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ160" s="23" t="n"/>
       <c r="BB160" s="23" t="n"/>
       <c r="BC160" s="2" t="n"/>
@@ -11579,7 +15044,52 @@
       <c r="BT160" s="2" t="n"/>
     </row>
     <row r="161" ht="15.75" customHeight="1" s="18">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>00025</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>001028826201351</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ANDREZZA SALOMAO MAIA MADEIRA</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>602,18</t>
+        </is>
+      </c>
       <c r="X161" s="47" t="n"/>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG161" t="inlineStr">
+        <is>
+          <t>00000017255</t>
+        </is>
+      </c>
+      <c r="AH161" t="inlineStr">
+        <is>
+          <t>16/11/2016</t>
+        </is>
+      </c>
+      <c r="AJ161" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ161" s="23" t="n"/>
       <c r="BB161" s="23" t="n"/>
       <c r="BC161" s="2" t="n"/>
@@ -11602,7 +15112,52 @@
       <c r="BT161" s="2" t="n"/>
     </row>
     <row r="162" ht="15.75" customHeight="1" s="18">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>00022</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>001135161201451</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>FRANCISCO MARCOS MODESTO</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>46,77</t>
+        </is>
+      </c>
       <c r="X162" s="47" t="n"/>
+      <c r="AF162" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG162" t="inlineStr">
+        <is>
+          <t>00000005591</t>
+        </is>
+      </c>
+      <c r="AH162" t="inlineStr">
+        <is>
+          <t>17/09/2015</t>
+        </is>
+      </c>
+      <c r="AJ162" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ162" s="23" t="n"/>
       <c r="BB162" s="23" t="n"/>
       <c r="BC162" s="2" t="n"/>
@@ -11625,7 +15180,52 @@
       <c r="BT162" s="2" t="n"/>
     </row>
     <row r="163" ht="15.75" customHeight="1" s="18">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>00466</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>100055794201352</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>DIOGENES SOUZA DAMASCENO</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>10.031,43</t>
+        </is>
+      </c>
       <c r="X163" s="47" t="n"/>
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG163" t="inlineStr">
+        <is>
+          <t>00000008000</t>
+        </is>
+      </c>
+      <c r="AH163" t="inlineStr">
+        <is>
+          <t>11/12/2015</t>
+        </is>
+      </c>
+      <c r="AJ163" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ163" s="23" t="n"/>
       <c r="BB163" s="23" t="n"/>
       <c r="BC163" s="2" t="n"/>
@@ -11648,7 +15248,52 @@
       <c r="BT163" s="2" t="n"/>
     </row>
     <row r="164" ht="15.75" customHeight="1" s="18">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>00053</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>000061609201552</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>KATIA MARIA SANTOS SOUSA</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>9.993,58</t>
+        </is>
+      </c>
       <c r="X164" s="47" t="n"/>
+      <c r="AF164" t="inlineStr">
+        <is>
+          <t>09901307146680</t>
+        </is>
+      </c>
+      <c r="AG164" t="inlineStr">
+        <is>
+          <t>00000008426</t>
+        </is>
+      </c>
+      <c r="AH164" t="inlineStr">
+        <is>
+          <t>22/01/2016</t>
+        </is>
+      </c>
+      <c r="AJ164" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ164" s="23" t="n"/>
       <c r="BB164" s="23" t="n"/>
       <c r="BC164" s="2" t="n"/>
@@ -11671,7 +15316,52 @@
       <c r="BT164" s="2" t="n"/>
     </row>
     <row r="165" ht="15.75" customHeight="1" s="18">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>00028</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>000000000069006</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN CIA BRASILEIRA BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>VALTER RIBEIRO DE PAULA</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>8.530,48</t>
+        </is>
+      </c>
       <c r="X165" s="47" t="n"/>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>09980703558646</t>
+        </is>
+      </c>
+      <c r="AG165" t="inlineStr">
+        <is>
+          <t>00000000500</t>
+        </is>
+      </c>
+      <c r="AH165" t="inlineStr">
+        <is>
+          <t>26/11/2005</t>
+        </is>
+      </c>
+      <c r="AJ165" t="inlineStr">
+        <is>
+          <t>12050701944</t>
+        </is>
+      </c>
       <c r="AZ165" s="23" t="n"/>
       <c r="BB165" s="23" t="n"/>
       <c r="BC165" s="2" t="n"/>
